--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/boortype/boortype.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/boortype/boortype.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="sommaties_stoffen" sheetId="1" r:id="rId1"/>
+    <sheet name="boortypes" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -410,7 +410,7 @@
         <v>type</v>
       </c>
       <c r="C1" t="str">
-        <v>dc_identifier</v>
+        <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
         <v>inScheme</v>
@@ -445,7 +445,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Collection</v>
       </c>
       <c r="C2" t="str">
-        <v>collectie_boortypes</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.collection.boortype.boortypes</v>
       </c>
       <c r="D2" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -480,7 +480,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.0</v>
       </c>
       <c r="D3" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -515,7 +515,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>1</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.1</v>
       </c>
       <c r="D4" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -550,7 +550,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>10</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.10</v>
       </c>
       <c r="D5" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -585,7 +585,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>11</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.11</v>
       </c>
       <c r="D6" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -620,7 +620,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>12</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.12</v>
       </c>
       <c r="D7" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -655,7 +655,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>13</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.13</v>
       </c>
       <c r="D8" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -690,7 +690,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>14</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.14</v>
       </c>
       <c r="D9" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -725,7 +725,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>15</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.15</v>
       </c>
       <c r="D10" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -760,7 +760,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>16</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.16</v>
       </c>
       <c r="D11" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -795,7 +795,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>17</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.17</v>
       </c>
       <c r="D12" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -830,7 +830,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>18</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.18</v>
       </c>
       <c r="D13" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -865,7 +865,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>19</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.19</v>
       </c>
       <c r="D14" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -900,7 +900,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>2</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.2</v>
       </c>
       <c r="D15" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -935,7 +935,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C16" t="str">
-        <v>20</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.20</v>
       </c>
       <c r="D16" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -970,7 +970,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C17" t="str">
-        <v>21</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.21</v>
       </c>
       <c r="D17" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1005,7 +1005,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C18" t="str">
-        <v>22</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.22</v>
       </c>
       <c r="D18" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1040,7 +1040,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C19" t="str">
-        <v>23</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.23</v>
       </c>
       <c r="D19" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1075,7 +1075,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C20" t="str">
-        <v>24</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.24</v>
       </c>
       <c r="D20" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1110,7 +1110,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C21" t="str">
-        <v>25</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.25</v>
       </c>
       <c r="D21" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1145,7 +1145,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C22" t="str">
-        <v>26</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.26</v>
       </c>
       <c r="D22" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1180,7 +1180,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C23" t="str">
-        <v>27</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.27</v>
       </c>
       <c r="D23" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1215,7 +1215,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C24" t="str">
-        <v>28</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.28</v>
       </c>
       <c r="D24" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1250,7 +1250,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C25" t="str">
-        <v>3</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.3</v>
       </c>
       <c r="D25" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1285,7 +1285,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C26" t="str">
-        <v>4</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.4</v>
       </c>
       <c r="D26" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1320,7 +1320,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C27" t="str">
-        <v>5</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.5</v>
       </c>
       <c r="D27" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1355,7 +1355,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C28" t="str">
-        <v>6</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.6</v>
       </c>
       <c r="D28" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1390,7 +1390,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C29" t="str">
-        <v>7</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.7</v>
       </c>
       <c r="D29" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1425,7 +1425,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C30" t="str">
-        <v>8</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.8</v>
       </c>
       <c r="D30" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1460,7 +1460,7 @@
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C31" t="str">
-        <v>9</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.boortype.9</v>
       </c>
       <c r="D31" t="str">
         <v>https://data.omgeving.vlaanderen.be/id/conceptscheme/boortype</v>
@@ -1495,7 +1495,7 @@
         <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C32" t="str">
-        <v>boortypes</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.boortype</v>
       </c>
       <c r="D32" t="str">
         <v>null</v>
